--- a/vendor/hscstudio/yii2-export/templates/opentbs/dailyreport.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/dailyreport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\appbjb\vendor\hscstudio\yii2-export\templates\opentbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bjb\vendor\hscstudio\yii2-export\templates\opentbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DAILY REPORT SALES</t>
   </si>
@@ -47,22 +47,28 @@
     <t>Catatan</t>
   </si>
   <si>
+    <t>[data.waktu;noerr]</t>
+  </si>
+  <si>
+    <t>[data.perusahaan;noerr]</t>
+  </si>
+  <si>
+    <t>[data.telfon;noerr]</t>
+  </si>
+  <si>
+    <t>[data.keterangan;noerr]</t>
+  </si>
+  <si>
+    <t>[data.catatan;noerr]</t>
+  </si>
+  <si>
+    <t>Perangkat</t>
+  </si>
+  <si>
+    <t>[data.con_used;noerr]</t>
+  </si>
+  <si>
     <t>[data.sales;noerr;block=tbs:row]</t>
-  </si>
-  <si>
-    <t>[data.waktu;noerr]</t>
-  </si>
-  <si>
-    <t>[data.perusahaan;noerr]</t>
-  </si>
-  <si>
-    <t>[data.telfon;noerr]</t>
-  </si>
-  <si>
-    <t>[data.keterangan;noerr]</t>
-  </si>
-  <si>
-    <t>[data.catatan;noerr]</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,18 +144,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,73 +450,80 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
